--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86283980-50E0-40BE-834E-0F14B41D40AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB9BC9D-F662-428F-A20A-92E7A58E711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-2544" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,7 +506,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB9BC9D-F662-428F-A20A-92E7A58E711B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02257FF-DF29-4A82-AD5A-569FECEF16F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-2544" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>自动化用例执行计划.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.88/?#/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -444,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -477,7 +473,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -486,15 +482,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -503,28 +499,18 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -574,13 +560,6 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -590,11 +569,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="/login" xr:uid="{A8E8865D-72F8-4427-B133-AE2C47738D4D}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{F18A504E-46F8-4802-A3A6-56F50D58E4D5}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{90EFEA20-0C0E-4EB5-9A2C-6FBC29C0F36C}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{F18A504E-46F8-4802-A3A6-56F50D58E4D5}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{90EFEA20-0C0E-4EB5-9A2C-6FBC29C0F36C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02257FF-DF29-4A82-AD5A-569FECEF16F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B00DDA-02B9-4CF8-96FE-30766D934109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>http://192.168.1.99/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hapyteam.com/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,7 +447,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -485,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -506,11 +510,21 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -571,8 +585,9 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F18A504E-46F8-4802-A3A6-56F50D58E4D5}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{90EFEA20-0C0E-4EB5-9A2C-6FBC29C0F36C}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{11698A0E-7EC2-4232-AA1D-8242CE1E66EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B00DDA-02B9-4CF8-96FE-30766D934109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B992D-4862-432E-9DC9-468049115B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,7 +489,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B992D-4862-432E-9DC9-468049115B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA014055-5810-43F5-9FC7-B1F246DC7ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-3036" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,15 +61,19 @@
     <t>N</t>
   </si>
   <si>
-    <t>http://8.133.191.123/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://192.168.1.99/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://hapyteam.com/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.118:9528/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.99:82/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +166,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -447,7 +454,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,10 +493,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -503,7 +510,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -520,18 +527,28 @@
         <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
@@ -586,8 +603,9 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F18A504E-46F8-4802-A3A6-56F50D58E4D5}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{90EFEA20-0C0E-4EB5-9A2C-6FBC29C0F36C}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{11698A0E-7EC2-4232-AA1D-8242CE1E66EA}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{6E6FF1CC-DC58-44E9-B206-7AC157E6A244}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA014055-5810-43F5-9FC7-B1F246DC7ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C60A2D8-E3D4-45ED-B322-B791942D5141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-3036" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -547,7 +547,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">

--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C60A2D8-E3D4-45ED-B322-B791942D5141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B1DFA-9E54-4E49-A363-1B7C3AE022DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="0" windowWidth="20160" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B1DFA-9E54-4E49-A363-1B7C3AE022DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD61148A-6A2B-45CD-A6DC-EEA88649E9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="0" windowWidth="20160" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -1,98 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD61148A-6A2B-45CD-A6DC-EEA88649E9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="14490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试环境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>是否执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动化测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动化用例执行计划.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y</t>
+    <t>http://192.168.1.99/login</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>http://192.168.1.99/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>http://192.168.1.114:9528/accountLogin</t>
   </si>
   <si>
-    <t>https://hapyteam.com/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.118:9528/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.99:82/login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -101,7 +72,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -110,11 +80,147 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +233,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -138,51 +430,330 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -231,7 +802,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -266,7 +837,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -440,32 +1011,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="K15" sqref="K14:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="28.75" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="17.775" customWidth="1"/>
+    <col min="3" max="3" width="28.775" customWidth="1"/>
+    <col min="4" max="4" width="35.4416666666667" customWidth="1"/>
+    <col min="5" max="5" width="9.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="18" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,9 +1048,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -493,15 +1059,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -510,102 +1076,66 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{805FBB70-D6C6-4F37-9500-116CC7EB44E4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{F18A504E-46F8-4802-A3A6-56F50D58E4D5}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{90EFEA20-0C0E-4EB5-9A2C-6FBC29C0F36C}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{11698A0E-7EC2-4232-AA1D-8242CE1E66EA}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{6E6FF1CC-DC58-44E9-B206-7AC157E6A244}"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://192.168.1.99/login"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://192.168.1.114:9528/accountLogin" tooltip="http://192.168.1.114:9528/accountLogin"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -43,7 +43,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>http://192.168.1.114:9528/accountLogin</t>
+    <t>http://192.168.1.70/accountLogin</t>
   </si>
   <si>
     <t>Y</t>
@@ -59,7 +59,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +79,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -547,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,32 +567,29 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,98 +601,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,6 +704,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1031,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K14:L15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1075,7 +1086,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1132,7 +1143,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.1.99/login"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://192.168.1.114:9528/accountLogin" tooltip="http://192.168.1.114:9528/accountLogin"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://192.168.1.70/accountLogin" tooltip="http://192.168.1.70/accountLogin"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A299EFF-ABE4-47D7-AE94-1A6ECEFED67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C05734-4AE9-4F9D-BDFC-40004F10BB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,21 +46,22 @@
     <t>N</t>
   </si>
   <si>
-    <t>https://hapyteam.com/</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>http://192.168.1.88/accountLogin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hapyteam.com/login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,14 +81,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -142,7 +135,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,9 +144,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -435,7 +425,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -474,10 +464,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -490,11 +480,11 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -540,7 +530,7 @@
       <c r="E9" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Y,N"</formula1>
@@ -548,7 +538,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" tooltip="https://hapyteam.com/" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/UI自动化/haipiTeam/项目测试配置.xlsx
+++ b/UI自动化/haipiTeam/项目测试配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HNtest\UI自动化\haipiTeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C05734-4AE9-4F9D-BDFC-40004F10BB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99EE478-1AF3-4431-8F21-E5AE32344936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27096" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>序号</t>
   </si>
@@ -49,11 +49,15 @@
     <t>Y</t>
   </si>
   <si>
-    <t>http://192.168.1.88/accountLogin</t>
+    <t>http://192.168.1.70/accountLogin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>https://hapyteam.com/login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.88/login</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -74,6 +78,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -82,6 +87,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -425,18 +431,18 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="28.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -464,13 +470,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -481,48 +487,58 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -539,6 +555,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{13EC82B9-78E5-43B3-9FC2-3D02E9EB7FE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
